--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD4_VAL_Countries_150520.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD4_VAL_Countries_150520.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="1259">
   <si>
     <t>ISO 4217 Currency Code</t>
   </si>
@@ -3766,9 +3766,6 @@
   </si>
   <si>
     <t>North AMerica</t>
-  </si>
-  <si>
-    <t>Europa</t>
   </si>
   <si>
     <t>Country Name</t>
@@ -4282,8 +4279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4305,19 +4302,19 @@
         <v>3</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>1239</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>1240</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>1225</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>1241</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1242</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>4</v>
@@ -4346,7 +4343,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>1226</v>
@@ -4380,7 +4377,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>1227</v>
@@ -4414,7 +4411,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>1228</v>
@@ -4448,7 +4445,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>1227</v>
@@ -4482,7 +4479,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>1228</v>
@@ -4516,7 +4513,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>1229</v>
@@ -4584,7 +4581,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>1227</v>
@@ -4618,7 +4615,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>1231</v>
@@ -4652,7 +4649,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>1227</v>
@@ -4686,7 +4683,7 @@
         <v>64</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>1227</v>
@@ -4720,7 +4717,7 @@
         <v>70</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>1229</v>
@@ -4754,7 +4751,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>1226</v>
@@ -4788,7 +4785,7 @@
         <v>80</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>1226</v>
@@ -4822,7 +4819,7 @@
         <v>86</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>1229</v>
@@ -4856,7 +4853,7 @@
         <v>91</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>1227</v>
@@ -4890,7 +4887,7 @@
         <v>97</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>1227</v>
@@ -4924,7 +4921,7 @@
         <v>101</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>1229</v>
@@ -4958,7 +4955,7 @@
         <v>106</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>1228</v>
@@ -4992,7 +4989,7 @@
         <v>112</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>1226</v>
@@ -5060,7 +5057,7 @@
         <v>123</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>1227</v>
@@ -5162,7 +5159,7 @@
         <v>141</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>1226</v>
@@ -5196,7 +5193,7 @@
         <v>146</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>1227</v>
@@ -5230,7 +5227,7 @@
         <v>152</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>1228</v>
@@ -5264,7 +5261,7 @@
         <v>156</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>1228</v>
@@ -5298,7 +5295,7 @@
         <v>161</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>1226</v>
@@ -5332,7 +5329,7 @@
         <v>167</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>1228</v>
@@ -5400,7 +5397,7 @@
         <v>177</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>1228</v>
@@ -5434,7 +5431,7 @@
         <v>183</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>1228</v>
@@ -5468,7 +5465,7 @@
         <v>187</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>1228</v>
@@ -5536,7 +5533,7 @@
         <v>196</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>1226</v>
@@ -5604,7 +5601,7 @@
         <v>207</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>1228</v>
@@ -5638,7 +5635,7 @@
         <v>1232</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>1228</v>
@@ -5672,7 +5669,7 @@
         <v>1233</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>1228</v>
@@ -5706,7 +5703,7 @@
         <v>219</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>1230</v>
@@ -5740,7 +5737,7 @@
         <v>225</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>1228</v>
@@ -5774,7 +5771,7 @@
         <v>229</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>1227</v>
@@ -5808,7 +5805,7 @@
         <v>235</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>1229</v>
@@ -5842,7 +5839,7 @@
         <v>240</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>1227</v>
@@ -5876,7 +5873,7 @@
         <v>245</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>1227</v>
@@ -5910,7 +5907,7 @@
         <v>251</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>1227</v>
@@ -5944,7 +5941,7 @@
         <v>257</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>1228</v>
@@ -5978,7 +5975,7 @@
         <v>262</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>1229</v>
@@ -6012,7 +6009,7 @@
         <v>266</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>1229</v>
@@ -6080,7 +6077,7 @@
         <v>277</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>1228</v>
@@ -6114,7 +6111,7 @@
         <v>282</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>1229</v>
@@ -6148,7 +6145,7 @@
         <v>286</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>1228</v>
@@ -6182,7 +6179,7 @@
         <v>290</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>1228</v>
@@ -6216,7 +6213,7 @@
         <v>296</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>1227</v>
@@ -6250,7 +6247,7 @@
         <v>302</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>1228</v>
@@ -6284,7 +6281,7 @@
         <v>308</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>1231</v>
@@ -6318,7 +6315,7 @@
         <v>313</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>1227</v>
@@ -6352,7 +6349,7 @@
         <v>317</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>1227</v>
@@ -6386,7 +6383,7 @@
         <v>321</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>1228</v>
@@ -6420,7 +6417,7 @@
         <v>325</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>1228</v>
@@ -6454,7 +6451,7 @@
         <v>331</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>1234</v>
@@ -6488,7 +6485,7 @@
         <v>337</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>1227</v>
@@ -6522,7 +6519,7 @@
         <v>341</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>1228</v>
@@ -6556,7 +6553,7 @@
         <v>347</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>1227</v>
@@ -6590,7 +6587,7 @@
         <v>351</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>1229</v>
@@ -6624,7 +6621,7 @@
         <v>355</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>1229</v>
@@ -6658,7 +6655,7 @@
         <v>361</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>1228</v>
@@ -6692,7 +6689,7 @@
         <v>366</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>1228</v>
@@ -6760,7 +6757,7 @@
         <v>375</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>1229</v>
@@ -6794,7 +6791,7 @@
         <v>381</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>1229</v>
@@ -6828,7 +6825,7 @@
         <v>387</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>1227</v>
@@ -6862,7 +6859,7 @@
         <v>393</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>1227</v>
@@ -6896,7 +6893,7 @@
         <v>399</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>1226</v>
@@ -6930,7 +6927,7 @@
         <v>405</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>1235</v>
@@ -6964,7 +6961,7 @@
         <v>411</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>1226</v>
@@ -6998,7 +6995,7 @@
         <v>417</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>1226</v>
@@ -7032,7 +7029,7 @@
         <v>422</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>1227</v>
@@ -7066,7 +7063,7 @@
         <v>426</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>1226</v>
@@ -7100,7 +7097,7 @@
         <v>432</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>1227</v>
@@ -7134,7 +7131,7 @@
         <v>436</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>1229</v>
@@ -7168,7 +7165,7 @@
         <v>441</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>1226</v>
@@ -7202,7 +7199,7 @@
         <v>447</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>1226</v>
@@ -7236,7 +7233,7 @@
         <v>452</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>1226</v>
@@ -7270,7 +7267,7 @@
         <v>458</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D88" s="13" t="s">
         <v>1228</v>
@@ -7304,7 +7301,7 @@
         <v>464</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D89" s="13" t="s">
         <v>1231</v>
@@ -7338,7 +7335,7 @@
         <v>468</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>1226</v>
@@ -7372,7 +7369,7 @@
         <v>474</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>1226</v>
@@ -7406,7 +7403,7 @@
         <v>479</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>1226</v>
@@ -7440,7 +7437,7 @@
         <v>484</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>1226</v>
@@ -7474,10 +7471,10 @@
         <v>490</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>490</v>
+        <v>1226</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="5"/>
@@ -7508,7 +7505,7 @@
         <v>496</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D95" s="13" t="s">
         <v>1227</v>
@@ -7542,7 +7539,7 @@
         <v>502</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D96" s="13" t="s">
         <v>1226</v>
@@ -7610,7 +7607,7 @@
         <v>513</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D98" s="13" t="s">
         <v>1228</v>
@@ -7644,7 +7641,7 @@
         <v>518</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D99" s="13" t="s">
         <v>1228</v>
@@ -7678,7 +7675,7 @@
         <v>523</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>1227</v>
@@ -7712,7 +7709,7 @@
         <v>528</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>1227</v>
@@ -7746,7 +7743,7 @@
         <v>534</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D102" s="13" t="s">
         <v>1227</v>
@@ -7780,7 +7777,7 @@
         <v>538</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>1227</v>
@@ -7814,7 +7811,7 @@
         <v>543</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>1228</v>
@@ -7848,7 +7845,7 @@
         <v>549</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>1228</v>
@@ -7882,7 +7879,7 @@
         <v>555</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>1226</v>
@@ -7916,7 +7913,7 @@
         <v>561</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D107" s="13" t="s">
         <v>1226</v>
@@ -7950,7 +7947,7 @@
         <v>567</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>1228</v>
@@ -7984,7 +7981,7 @@
         <v>571</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>1227</v>
@@ -8018,7 +8015,7 @@
         <v>577</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>1231</v>
@@ -8052,7 +8049,7 @@
         <v>581</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D111" s="13" t="s">
         <v>1228</v>
@@ -8086,7 +8083,7 @@
         <v>587</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D112" s="13" t="s">
         <v>1228</v>
@@ -8120,7 +8117,7 @@
         <v>592</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D113" s="13" t="s">
         <v>1229</v>
@@ -8154,7 +8151,7 @@
         <v>597</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D114" s="13" t="s">
         <v>1231</v>
@@ -8188,7 +8185,7 @@
         <v>601</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D115" s="13" t="s">
         <v>1227</v>
@@ -8222,7 +8219,7 @@
         <v>607</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>1227</v>
@@ -8256,7 +8253,7 @@
         <v>611</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D117" s="13" t="s">
         <v>1226</v>
@@ -8290,7 +8287,7 @@
         <v>617</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>1227</v>
@@ -8324,7 +8321,7 @@
         <v>621</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D119" s="13" t="s">
         <v>1228</v>
@@ -8358,7 +8355,7 @@
         <v>627</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D120" s="13" t="s">
         <v>1228</v>
@@ -8392,7 +8389,7 @@
         <v>633</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>1226</v>
@@ -8460,7 +8457,7 @@
         <v>644</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>1231</v>
@@ -8494,7 +8491,7 @@
         <v>648</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D124" s="13" t="s">
         <v>1226</v>
@@ -8528,7 +8525,7 @@
         <v>653</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D125" s="13" t="s">
         <v>1227</v>
@@ -8562,7 +8559,7 @@
         <v>657</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>1231</v>
@@ -8596,7 +8593,7 @@
         <v>662</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D127" s="13" t="s">
         <v>1229</v>
@@ -8630,7 +8627,7 @@
         <v>668</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>1228</v>
@@ -8664,7 +8661,7 @@
         <v>672</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D129" s="13" t="s">
         <v>1228</v>
@@ -8698,7 +8695,7 @@
         <v>678</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D130" s="13" t="s">
         <v>1227</v>
@@ -8732,7 +8729,7 @@
         <v>683</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D131" s="13" t="s">
         <v>1226</v>
@@ -8766,7 +8763,7 @@
         <v>688</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D132" s="13" t="s">
         <v>1226</v>
@@ -8800,7 +8797,7 @@
         <v>693</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D133" s="13" t="s">
         <v>1231</v>
@@ -8834,7 +8831,7 @@
         <v>697</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D134" s="13" t="s">
         <v>1229</v>
@@ -8868,7 +8865,7 @@
         <v>703</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D135" s="13" t="s">
         <v>1231</v>
@@ -8970,7 +8967,7 @@
         <v>721</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D138" s="13" t="s">
         <v>1226</v>
@@ -9004,7 +9001,7 @@
         <v>726</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D139" s="13" t="s">
         <v>1227</v>
@@ -9038,7 +9035,7 @@
         <v>732</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D140" s="13" t="s">
         <v>1227</v>
@@ -9072,7 +9069,7 @@
         <v>736</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D141" s="13" t="s">
         <v>1226</v>
@@ -9106,7 +9103,7 @@
         <v>741</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D142" s="13" t="s">
         <v>1227</v>
@@ -9140,7 +9137,7 @@
         <v>746</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D143" s="13" t="s">
         <v>1234</v>
@@ -9174,7 +9171,7 @@
         <v>751</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D144" s="13" t="s">
         <v>1228</v>
@@ -9208,7 +9205,7 @@
         <v>756</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D145" s="13" t="s">
         <v>1229</v>
@@ -9242,7 +9239,7 @@
         <v>760</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D146" s="13" t="s">
         <v>1229</v>
@@ -9276,7 +9273,7 @@
         <v>764</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D147" s="13" t="s">
         <v>1229</v>
@@ -9310,7 +9307,7 @@
         <v>768</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>1231</v>
@@ -9344,7 +9341,7 @@
         <v>774</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D149" s="13" t="s">
         <v>1227</v>
@@ -9378,7 +9375,7 @@
         <v>778</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D150" s="13" t="s">
         <v>1228</v>
@@ -9412,7 +9409,7 @@
         <v>784</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D151" s="13" t="s">
         <v>1226</v>
@@ -9446,7 +9443,7 @@
         <v>789</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D152" s="13" t="s">
         <v>1228</v>
@@ -9480,7 +9477,7 @@
         <v>793</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D153" s="13" t="s">
         <v>1227</v>
@@ -9514,7 +9511,7 @@
         <v>798</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D154" s="13" t="s">
         <v>1228</v>
@@ -9548,7 +9545,7 @@
         <v>803</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D155" s="13" t="s">
         <v>1228</v>
@@ -9582,7 +9579,7 @@
         <v>809</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D156" s="13" t="s">
         <v>1226</v>
@@ -9616,7 +9613,7 @@
         <v>814</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D157" s="13" t="s">
         <v>1227</v>
@@ -9650,7 +9647,7 @@
         <v>819</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D158" s="13" t="s">
         <v>1227</v>
@@ -9684,7 +9681,7 @@
         <v>823</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D159" s="13" t="s">
         <v>1231</v>
@@ -9718,7 +9715,7 @@
         <v>828</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D160" s="13" t="s">
         <v>1228</v>
@@ -9786,7 +9783,7 @@
         <v>839</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D162" s="13" t="s">
         <v>1227</v>
@@ -9820,7 +9817,7 @@
         <v>843</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D163" s="13" t="s">
         <v>1226</v>
@@ -9854,7 +9851,7 @@
         <v>848</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D164" s="13" t="s">
         <v>1228</v>
@@ -9956,7 +9953,7 @@
         <v>864</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D167" s="13" t="s">
         <v>1227</v>
@@ -9990,7 +9987,7 @@
         <v>870</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D168" s="13" t="s">
         <v>1227</v>
@@ -10024,7 +10021,7 @@
         <v>874</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D169" s="13" t="s">
         <v>1226</v>
@@ -10058,7 +10055,7 @@
         <v>879</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D170" s="13" t="s">
         <v>1226</v>
@@ -10092,7 +10089,7 @@
         <v>885</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D171" s="13" t="s">
         <v>1228</v>
@@ -10126,7 +10123,7 @@
         <v>890</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D172" s="13" t="s">
         <v>1226</v>
@@ -10160,7 +10157,7 @@
         <v>896</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D173" s="13" t="s">
         <v>1235</v>
@@ -10194,7 +10191,7 @@
         <v>900</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D174" s="13" t="s">
         <v>1228</v>
@@ -10228,7 +10225,7 @@
         <v>904</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D175" s="13" t="s">
         <v>1231</v>
@@ -10296,7 +10293,7 @@
         <v>915</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D177" s="13" t="s">
         <v>1228</v>
@@ -10330,7 +10327,7 @@
         <v>920</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D178" s="13" t="s">
         <v>1234</v>
@@ -10364,7 +10361,7 @@
         <v>925</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D179" s="13" t="s">
         <v>1226</v>
@@ -10398,7 +10395,7 @@
         <v>930</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D180" s="13" t="s">
         <v>1231</v>
@@ -10432,7 +10429,7 @@
         <v>934</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D181" s="13" t="s">
         <v>1228</v>
@@ -10466,7 +10463,7 @@
         <v>939</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D182" s="13" t="s">
         <v>1227</v>
@@ -10500,7 +10497,7 @@
         <v>945</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D183" s="13" t="s">
         <v>1226</v>
@@ -10534,7 +10531,7 @@
         <v>950</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D184" s="13" t="s">
         <v>1227</v>
@@ -10636,7 +10633,7 @@
         <v>964</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D187" s="13" t="s">
         <v>1226</v>
@@ -10670,7 +10667,7 @@
         <v>969</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D188" s="13" t="s">
         <v>1231</v>
@@ -10704,7 +10701,7 @@
         <v>975</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D189" s="13" t="s">
         <v>1227</v>
@@ -10772,7 +10769,7 @@
         <v>985</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D191" s="13" t="s">
         <v>1226</v>
@@ -10806,7 +10803,7 @@
         <v>991</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D192" s="13" t="s">
         <v>1226</v>
@@ -10840,7 +10837,7 @@
         <v>996</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D193" s="13" t="s">
         <v>1228</v>
@@ -10874,7 +10871,7 @@
         <v>1001</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D194" s="13" t="s">
         <v>1228</v>
@@ -10908,7 +10905,7 @@
         <v>1006</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D195" s="13" t="s">
         <v>1234</v>
@@ -10942,7 +10939,7 @@
         <v>1007</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D196" s="13" t="s">
         <v>1226</v>
@@ -10976,7 +10973,7 @@
         <v>1012</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D197" s="13" t="s">
         <v>1234</v>
@@ -11010,7 +11007,7 @@
         <v>1013</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D198" s="13" t="s">
         <v>1227</v>
@@ -11044,7 +11041,7 @@
         <v>1015</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D199" s="13" t="s">
         <v>1227</v>
@@ -11076,7 +11073,7 @@
         <v>1017</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D200" s="13" t="s">
         <v>1228</v>
@@ -11108,7 +11105,7 @@
         <v>1018</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D201" s="13" t="s">
         <v>1234</v>
@@ -11142,7 +11139,7 @@
         <v>1021</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D202" s="13" t="s">
         <v>1231</v>
@@ -11170,7 +11167,7 @@
         <v>1022</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D203" s="13" t="s">
         <v>1231</v>
@@ -11204,7 +11201,7 @@
         <v>1026</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D204" s="13" t="s">
         <v>1235</v>
@@ -11238,7 +11235,7 @@
         <v>1030</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D205" s="13" t="s">
         <v>1231</v>
@@ -11294,7 +11291,7 @@
         <v>1035</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D207" s="13" t="s">
         <v>1231</v>
@@ -11328,7 +11325,7 @@
         <v>1039</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D208" s="13" t="s">
         <v>1231</v>
@@ -11362,7 +11359,7 @@
         <v>1044</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D209" s="13" t="s">
         <v>1231</v>
@@ -11396,7 +11393,7 @@
         <v>1048</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D210" s="13" t="s">
         <v>1228</v>
@@ -11430,7 +11427,7 @@
         <v>1052</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D211" s="13" t="s">
         <v>1231</v>
@@ -11464,7 +11461,7 @@
         <v>1056</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D212" s="13" t="s">
         <v>1229</v>
@@ -11532,7 +11529,7 @@
         <v>1061</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D214" s="13" t="s">
         <v>1231</v>
@@ -11594,7 +11591,7 @@
         <v>1069</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D216" s="13" t="s">
         <v>1231</v>
@@ -11650,7 +11647,7 @@
         <v>1074</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D218" s="13" t="s">
         <v>1231</v>
@@ -11684,7 +11681,7 @@
         <v>1078</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D219" s="13" t="s">
         <v>1231</v>
@@ -11718,7 +11715,7 @@
         <v>1082</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D220" s="13" t="s">
         <v>1231</v>
@@ -11752,7 +11749,7 @@
         <v>1086</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D221" s="13" t="s">
         <v>1231</v>
@@ -11786,7 +11783,7 @@
         <v>1091</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D222" s="13" t="s">
         <v>1227</v>
@@ -11820,7 +11817,7 @@
         <v>1096</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D223" s="13" t="s">
         <v>1227</v>
@@ -11854,7 +11851,7 @@
         <v>1101</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D224" s="13" t="s">
         <v>1229</v>
@@ -11922,7 +11919,7 @@
         <v>1110</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D226" s="13" t="s">
         <v>1231</v>
@@ -11952,7 +11949,7 @@
         <v>1114</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D227" s="13" t="s">
         <v>1229</v>
@@ -12020,7 +12017,7 @@
         <v>1124</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D229" s="13" t="s">
         <v>1227</v>
@@ -12054,7 +12051,7 @@
         <v>1129</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D230" s="13" t="s">
         <v>1229</v>
@@ -12088,7 +12085,7 @@
         <v>1133</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D231" s="13" t="s">
         <v>1231</v>
@@ -12182,7 +12179,7 @@
         <v>1146</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D234" s="13" t="s">
         <v>1229</v>
@@ -12216,7 +12213,7 @@
         <v>1150</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D235" s="13" t="s">
         <v>1231</v>
@@ -12247,10 +12244,10 @@
         <v>1155</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D236" s="13" t="s">
         <v>1229</v>
@@ -12284,7 +12281,7 @@
         <v>1158</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D237" s="13" t="s">
         <v>1231</v>
@@ -12318,7 +12315,7 @@
         <v>1162</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D238" s="13" t="s">
         <v>1229</v>
@@ -12352,7 +12349,7 @@
         <v>1166</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D239" s="13" t="s">
         <v>1226</v>
@@ -12386,7 +12383,7 @@
         <v>1171</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D240" s="13" t="s">
         <v>1226</v>
@@ -12420,7 +12417,7 @@
         <v>1177</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D241" s="13" t="s">
         <v>1227</v>
@@ -12522,7 +12519,7 @@
         <v>1189</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D244" s="13" t="s">
         <v>1229</v>
@@ -12556,7 +12553,7 @@
         <v>1190</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D245" s="13" t="s">
         <v>1237</v>
@@ -12590,7 +12587,7 @@
         <v>1194</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D246" s="13" t="s">
         <v>1227</v>
@@ -12624,7 +12621,7 @@
         <v>1198</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D247" s="13" t="s">
         <v>1229</v>
@@ -12658,7 +12655,7 @@
         <v>1204</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D248" s="13" t="s">
         <v>1229</v>
@@ -12692,10 +12689,10 @@
         <v>1209</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
       <c r="E249" s="13"/>
       <c r="F249" s="5"/>
